--- a/Output/Result.xlsx
+++ b/Output/Result.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Project Details" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,13 +16,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font/>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -34,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,15 +53,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="date_style" xfId="1" hidden="0"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,14 +431,795 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Project ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Duration (Months)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cost per Month</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total Cost</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Contract Pay</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Project 235</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>44321</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>80887.46666666666</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1213312</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1242431.488</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Project 236</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44240</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>33792.78571428572</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>473099</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>495334.653</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Project 237</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44224</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>22499.4</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>449988</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>465737.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Project 238</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44675</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>48813.09523809524</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1025075</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>1070178.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Project 239</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44464</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>52624</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>999856</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1072845.488</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Project 240</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44255</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>12692.91304347826</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>291937</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>310329.031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Project 241</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44477</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>76010.47826086957</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1748241</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1826911.845</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Project 242</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44418</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>20027.53846153846</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>260358</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>274677.69</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Project 243</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44306</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>56310.33333333334</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>1013586</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1090618.536</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Project 244</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44313</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>69036.66666666667</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>1035550</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>1094576.35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Project 245</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44613</v>
+      </c>
+      <c r="C12" t="n">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>41025.61904761905</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>861538</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>896861.058</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Project 246</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44626</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>33090.6</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>661812</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>682989.9840000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Project 247</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44621</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>32773.25</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>524372</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>561602.412</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Project 248</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44543</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>35020.9</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>700418</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>742443.08</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Project 249</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44501</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45193.3125</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>723093</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>751293.627</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Project 250</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44375</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>94486.33333333333</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1133836</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>1165583.408</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Project 251</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>57566.1</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>1151322</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>1213493.388</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Project 252</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>44337</v>
+      </c>
+      <c r="C19" t="n">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45839.53846153846</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>595914</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>613195.5060000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Project 253</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44348</v>
+      </c>
+      <c r="C20" t="n">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>43236.04761904762</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>907957</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>933379.796</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Project 254</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44447</v>
+      </c>
+      <c r="C21" t="n">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>30421.88235294117</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>517172</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>538376.052</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Project 255</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>58933.83333333334</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>707206</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>729129.3860000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Project 256</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44386</v>
+      </c>
+      <c r="C23" t="n">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>74560.30769230769</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>969284</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>1023563.904</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Project 257</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>44724</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>81026.60000000001</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>1215399</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>1294399.935</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Project 258</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>44198</v>
+      </c>
+      <c r="C25" t="n">
+        <v>21</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>48610.04761904762</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>1020811</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>1067768.306</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Project 259</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44711</v>
+      </c>
+      <c r="C26" t="n">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>38095.38095238095</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>800003</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>832803.123</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Project 260</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>44248</v>
+      </c>
+      <c r="C27" t="n">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>62717.6923076923</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>815330</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>855281.17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Project 261</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>44349</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>48716.5625</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>779465</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>805187.345</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Project 262</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>44414</v>
+      </c>
+      <c r="C29" t="n">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>41188.0625</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>659009</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>686028.3689999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Project 263</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>44312</v>
+      </c>
+      <c r="C30" t="n">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>73495.66666666667</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>881948</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>918989.816</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Project 264</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>44583</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>34781</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>799963</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>849560.706</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Project 265</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>44730</v>
+      </c>
+      <c r="C32" t="n">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>16099.7</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>321994</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>346465.544</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Project 266</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>44473</v>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>54715.4</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>820731</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>842070.0060000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Project 267</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>44364</v>
+      </c>
+      <c r="C34" t="n">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>25180.78947368421</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>478435</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>508576.405</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Project 268</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>44402</v>
+      </c>
+      <c r="C35" t="n">
+        <v>18</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>39518.77777777778</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>711338</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>766822.3639999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>